--- a/UDM.Insurance.Interface/Templates/PrintTemplateUpgradeNonRedeemed2mWLite.xlsx
+++ b/UDM.Insurance.Interface/Templates/PrintTemplateUpgradeNonRedeemed2mWLite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeshavM\Desktop\Project Files\udminsure\UDM.Insurance.Interface\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyleh\source\repos\Insure20230223\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8D56F-AFB0-419E-A3CE-AF85F5BCC786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E0BAF2-B8AE-4EC1-ADC1-4C303ADBA9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1095" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <definedName name="LifeAssured2FirstName" localSheetId="4">'Cover And Lead'!$AX$46</definedName>
     <definedName name="LifeAssured2Surname">'Cover And Lead'!$AX$47</definedName>
     <definedName name="NewTotalPremium" localSheetId="4">'Cover And Lead'!$AJ$48</definedName>
+    <definedName name="NOKDetails">'Cover And Lead'!$AC$50</definedName>
     <definedName name="Offer">'Cover And Lead'!$V$48</definedName>
     <definedName name="PostalCode" localSheetId="4">'Cover And Lead'!$AP$42</definedName>
     <definedName name="RefNo" localSheetId="4">'Cover And Lead'!$A$42</definedName>
@@ -799,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,6 +1273,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,9 +1493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1529,9 +1533,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1564,26 +1568,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1616,26 +1603,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3870,7 +3840,7 @@
   <dimension ref="A1:BD306"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM58" sqref="AM58"/>
+      <selection activeCell="AC50" sqref="AC50:AI55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,15 +4981,15 @@
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
       <c r="AB50" s="71"/>
-      <c r="AC50" s="71" t="s">
+      <c r="AC50" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
+      <c r="AD50" s="181"/>
+      <c r="AE50" s="181"/>
+      <c r="AF50" s="181"/>
+      <c r="AG50" s="181"/>
+      <c r="AH50" s="181"/>
+      <c r="AI50" s="181"/>
       <c r="AJ50" s="145" t="s">
         <v>85</v>
       </c>
@@ -5077,13 +5047,13 @@
       <c r="Z51" s="71"/>
       <c r="AA51" s="71"/>
       <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
+      <c r="AC51" s="181"/>
+      <c r="AD51" s="181"/>
+      <c r="AE51" s="181"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="181"/>
+      <c r="AH51" s="181"/>
+      <c r="AI51" s="181"/>
       <c r="AJ51" s="154" t="s">
         <v>86</v>
       </c>
@@ -5141,13 +5111,13 @@
       <c r="Z52" s="71"/>
       <c r="AA52" s="71"/>
       <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="71"/>
+      <c r="AC52" s="181"/>
+      <c r="AD52" s="181"/>
+      <c r="AE52" s="181"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="181"/>
+      <c r="AH52" s="181"/>
+      <c r="AI52" s="181"/>
       <c r="AJ52" s="157"/>
       <c r="AK52" s="158"/>
       <c r="AL52" s="158"/>
@@ -5205,13 +5175,13 @@
       <c r="Z53" s="71"/>
       <c r="AA53" s="71"/>
       <c r="AB53" s="71"/>
-      <c r="AC53" s="71"/>
-      <c r="AD53" s="71"/>
-      <c r="AE53" s="71"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
-      <c r="AI53" s="71"/>
+      <c r="AC53" s="181"/>
+      <c r="AD53" s="181"/>
+      <c r="AE53" s="181"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="181"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="181"/>
       <c r="AJ53" s="154" t="s">
         <v>88</v>
       </c>
@@ -5269,13 +5239,13 @@
       <c r="Z54" s="71"/>
       <c r="AA54" s="71"/>
       <c r="AB54" s="71"/>
-      <c r="AC54" s="71"/>
-      <c r="AD54" s="71"/>
-      <c r="AE54" s="71"/>
-      <c r="AF54" s="71"/>
-      <c r="AG54" s="71"/>
-      <c r="AH54" s="71"/>
-      <c r="AI54" s="71"/>
+      <c r="AC54" s="181"/>
+      <c r="AD54" s="181"/>
+      <c r="AE54" s="181"/>
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="181"/>
+      <c r="AH54" s="181"/>
+      <c r="AI54" s="181"/>
       <c r="AJ54" s="157"/>
       <c r="AK54" s="158"/>
       <c r="AL54" s="158"/>
@@ -5333,13 +5303,13 @@
       <c r="Z55" s="71"/>
       <c r="AA55" s="71"/>
       <c r="AB55" s="71"/>
-      <c r="AC55" s="71"/>
-      <c r="AD55" s="71"/>
-      <c r="AE55" s="71"/>
-      <c r="AF55" s="71"/>
-      <c r="AG55" s="71"/>
-      <c r="AH55" s="71"/>
-      <c r="AI55" s="71"/>
+      <c r="AC55" s="181"/>
+      <c r="AD55" s="181"/>
+      <c r="AE55" s="181"/>
+      <c r="AF55" s="181"/>
+      <c r="AG55" s="181"/>
+      <c r="AH55" s="181"/>
+      <c r="AI55" s="181"/>
       <c r="AJ55" s="151" t="s">
         <v>87</v>
       </c>
